--- a/仕様書/【CSDC】22_プレイヤー.xlsx
+++ b/仕様書/【CSDC】22_プレイヤー.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{414CEB6D-BC6B-47BB-AE5B-1139003F57BA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileSharing userName="Nakao" reservationPassword="C73B"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="トップ" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -989,21 +989,21 @@
       <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
     </row>
-    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1077,8 +1077,8 @@
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
     </row>
-    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="AN7" s="19"/>
       <c r="AO7" s="20"/>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23"/>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1214,7 +1214,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="17"/>
     </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1256,7 +1256,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1298,7 +1298,7 @@
       <c r="AN11" s="10"/>
       <c r="AO11" s="12"/>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1340,7 +1340,7 @@
       <c r="AN12" s="10"/>
       <c r="AO12" s="12"/>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1382,7 +1382,7 @@
       <c r="AN13" s="10"/>
       <c r="AO13" s="12"/>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1424,7 +1424,7 @@
       <c r="AN14" s="10"/>
       <c r="AO14" s="12"/>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1466,7 +1466,7 @@
       <c r="AN15" s="10"/>
       <c r="AO15" s="12"/>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1508,7 +1508,7 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="12"/>
     </row>
-    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1550,7 +1550,7 @@
       <c r="AN17" s="10"/>
       <c r="AO17" s="12"/>
     </row>
-    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1592,7 +1592,7 @@
       <c r="AN18" s="10"/>
       <c r="AO18" s="12"/>
     </row>
-    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1634,7 +1634,7 @@
       <c r="AN19" s="10"/>
       <c r="AO19" s="12"/>
     </row>
-    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1676,7 +1676,7 @@
       <c r="AN20" s="10"/>
       <c r="AO20" s="12"/>
     </row>
-    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1718,7 +1718,7 @@
       <c r="AN21" s="10"/>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1760,7 +1760,7 @@
       <c r="AN22" s="10"/>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1802,7 +1802,7 @@
       <c r="AN23" s="10"/>
       <c r="AO23" s="12"/>
     </row>
-    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1844,7 +1844,7 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="12"/>
     </row>
-    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1886,7 +1886,7 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1928,7 +1928,7 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="12"/>
     </row>
-    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1970,7 +1970,7 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="12"/>
     </row>
-    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2012,7 +2012,7 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="12"/>
     </row>
-    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2054,7 +2054,7 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="12"/>
     </row>
-    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2096,7 +2096,7 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="12"/>
     </row>
-    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2138,7 +2138,7 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="12"/>
     </row>
-    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2180,7 +2180,7 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="12"/>
     </row>
-    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2222,7 +2222,7 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="12"/>
     </row>
-    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2264,7 +2264,7 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="12"/>
     </row>
-    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2306,7 +2306,7 @@
       <c r="AN35" s="10"/>
       <c r="AO35" s="12"/>
     </row>
-    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2348,7 +2348,7 @@
       <c r="AN36" s="10"/>
       <c r="AO36" s="12"/>
     </row>
-    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2524,12 +2524,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{8502BA42-3A61-4A49-8477-705A05F483FE}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{1388767F-A358-4FA6-867A-5A2B92EED372}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{C95BC720-0E1D-4FC5-8146-B14899D46EC4}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{97B69269-617A-49A2-87A3-3A8F627CCB0B}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{C19DB74C-E94D-48F1-A9C6-5BB9AF52BB27}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{50A7350F-FCE6-44CD-A21A-AA1E8EB111FB}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2537,7 +2537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2545,21 +2545,21 @@
       <selection pane="bottomLeft" activeCell="O18" sqref="O18:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="AB4" s="45"/>
       <c r="AC4" s="45"/>
     </row>
-    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -2633,8 +2633,8 @@
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
     </row>
-    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="38"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -2683,7 +2683,7 @@
       <c r="AU7" s="39"/>
       <c r="AV7" s="40"/>
     </row>
-    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -2732,7 +2732,7 @@
       <c r="AU8" s="42"/>
       <c r="AV8" s="43"/>
     </row>
-    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="44" t="s">
         <v>22</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="17"/>
     </row>
-    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2840,7 +2840,7 @@
       <c r="AU10" s="32"/>
       <c r="AV10" s="33"/>
     </row>
-    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2889,7 +2889,7 @@
       <c r="AU11" s="32"/>
       <c r="AV11" s="33"/>
     </row>
-    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="29"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2938,7 +2938,7 @@
       <c r="AU12" s="32"/>
       <c r="AV12" s="33"/>
     </row>
-    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2987,7 +2987,7 @@
       <c r="AU13" s="32"/>
       <c r="AV13" s="33"/>
     </row>
-    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="29"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3036,7 +3036,7 @@
       <c r="AU14" s="32"/>
       <c r="AV14" s="33"/>
     </row>
-    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3085,7 +3085,7 @@
       <c r="AU15" s="32"/>
       <c r="AV15" s="33"/>
     </row>
-    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="29"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3134,7 +3134,7 @@
       <c r="AU16" s="32"/>
       <c r="AV16" s="33"/>
     </row>
-    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="29"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3183,7 +3183,7 @@
       <c r="AU17" s="32"/>
       <c r="AV17" s="33"/>
     </row>
-    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="29"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3232,7 +3232,7 @@
       <c r="AU18" s="32"/>
       <c r="AV18" s="33"/>
     </row>
-    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -3281,7 +3281,7 @@
       <c r="AU19" s="32"/>
       <c r="AV19" s="33"/>
     </row>
-    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="29"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -3330,7 +3330,7 @@
       <c r="AU20" s="32"/>
       <c r="AV20" s="33"/>
     </row>
-    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="29"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -3379,7 +3379,7 @@
       <c r="AU21" s="32"/>
       <c r="AV21" s="33"/>
     </row>
-    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="29"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -3428,7 +3428,7 @@
       <c r="AU22" s="32"/>
       <c r="AV22" s="33"/>
     </row>
-    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="29"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -3477,7 +3477,7 @@
       <c r="AU23" s="32"/>
       <c r="AV23" s="33"/>
     </row>
-    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="29"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -3526,7 +3526,7 @@
       <c r="AU24" s="32"/>
       <c r="AV24" s="33"/>
     </row>
-    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="29"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -3575,7 +3575,7 @@
       <c r="AU25" s="32"/>
       <c r="AV25" s="33"/>
     </row>
-    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="29"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3624,7 +3624,7 @@
       <c r="AU26" s="32"/>
       <c r="AV26" s="33"/>
     </row>
-    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="29"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3673,7 +3673,7 @@
       <c r="AU27" s="32"/>
       <c r="AV27" s="33"/>
     </row>
-    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="29"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -3722,7 +3722,7 @@
       <c r="AU28" s="32"/>
       <c r="AV28" s="33"/>
     </row>
-    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="29"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -3771,7 +3771,7 @@
       <c r="AU29" s="32"/>
       <c r="AV29" s="33"/>
     </row>
-    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -3820,7 +3820,7 @@
       <c r="AU30" s="32"/>
       <c r="AV30" s="33"/>
     </row>
-    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="29"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -3869,7 +3869,7 @@
       <c r="AU31" s="32"/>
       <c r="AV31" s="33"/>
     </row>
-    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="36"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -3918,7 +3918,7 @@
       <c r="AU32" s="32"/>
       <c r="AV32" s="33"/>
     </row>
-    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="29"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -3967,7 +3967,7 @@
       <c r="AU33" s="32"/>
       <c r="AV33" s="33"/>
     </row>
-    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="36"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4016,7 +4016,7 @@
       <c r="AU34" s="32"/>
       <c r="AV34" s="33"/>
     </row>
-    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="29"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4065,7 +4065,7 @@
       <c r="AU35" s="32"/>
       <c r="AV35" s="33"/>
     </row>
-    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="29"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4114,7 +4114,7 @@
       <c r="AU36" s="32"/>
       <c r="AV36" s="33"/>
     </row>
-    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="29"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4163,7 +4163,7 @@
       <c r="AU37" s="32"/>
       <c r="AV37" s="33"/>
     </row>
-    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="29"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4212,7 +4212,7 @@
       <c r="AU38" s="32"/>
       <c r="AV38" s="33"/>
     </row>
-    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -4355,12 +4355,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{8DCB77BB-434D-4C51-B13B-1F5B9EAEA1FD}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{E12DE0D8-2322-4FF6-8375-B6D19D08D27B}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{A865FAFD-55EB-4C90-907B-82542FBDCB87}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{3667B876-2AC5-4D84-B048-4FA4D0E10712}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{A228179B-CFD4-47F5-BAD5-0D81152B9E70}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{FF9F4F95-7813-4533-B322-BFC3894AC550}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4368,7 +4368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4376,21 +4376,21 @@
       <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4477,12 +4477,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{E4EC6AD2-2817-433E-8D94-7C9999AE94E4}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{8D033FD0-8D12-460A-A9AC-A6738218B9CC}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{C2E32065-2592-48D1-9A26-647120297D50}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{5F0CED30-7849-44EE-A0E6-70EF71C6EBCC}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{B32CCB5F-B40A-4BAA-9622-45C1CE0A740B}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{1C321920-2688-44C3-81D7-9051BDA6ED60}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4490,7 +4490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4498,21 +4498,21 @@
       <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4599,12 +4599,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{7736CEB5-CD01-4EF5-8171-D109BA924C3C}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{3841490C-E6AD-4813-A355-0EEBD2F02850}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{5B14AF64-042B-4EBA-9345-02BB0957E6AA}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{9D712066-27F1-408F-9029-3024CAAFF8D9}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{F085858B-B257-4F11-A2AE-822F15E439D9}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{7A04E4E6-B63D-499A-940C-1C415EA8AF23}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4612,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4620,21 +4620,21 @@
       <selection pane="bottomLeft" activeCell="V4" sqref="V4:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4721,12 +4721,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{FCA97F6C-D2B9-474F-9D66-4F8F4E5782B5}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{50E01AC6-C146-45A1-9EB8-484B2019FA67}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{41B24DAC-633F-4076-A2C8-19C25B06B3DF}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{12FBD9D9-FBCD-4FD3-BCB3-8652DED8F1F0}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{6EB5D335-8644-4AC4-9D04-C204833798BC}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{3A4FD47A-98CC-4CA5-8AE7-C8391E14B861}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4734,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4742,21 +4742,21 @@
       <selection pane="bottomLeft" activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -4843,12 +4843,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{41996660-7088-44A7-8635-E576B8FB1749}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{D469651F-B41E-4076-9953-8D782205D32F}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{A3030557-C95D-4A49-A6C1-51C0D72B84D9}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{CD1EB01E-DEDE-4F68-BA56-AB31C44A3F6C}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{7B12842B-55B2-492B-A96D-47328009FF44}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{14FF2D82-6FB5-4124-8234-C49173D8AD63}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/仕様書/【CSDC】22_プレイヤー.xlsx
+++ b/仕様書/【CSDC】22_プレイヤー.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <fileSharing userName="Nakao" reservationPassword="C73B"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileSharing userName="Nakao" algorithmName="SHA-512" hashValue="7XUEVUT7jj36cD4QNCAgSHhPvts8vh6Y8Jw2oRWI1QyyugMZRiiwDsfBAsWos429AX6daL24Bx4sODZYBYIG9A==" saltValue="FojGs/caza6naMuDUL8EzA==" spinCount="100000"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="トップ" sheetId="1" r:id="rId1"/>
-    <sheet name="仕様項目1" sheetId="9" r:id="rId2"/>
+    <sheet name="プレイヤー概要" sheetId="9" r:id="rId2"/>
     <sheet name="仕様項目2" sheetId="8" r:id="rId3"/>
     <sheet name="仕様項目3" sheetId="11" r:id="rId4"/>
     <sheet name="仕様項目4" sheetId="10" r:id="rId5"/>
     <sheet name="仕様項目5" sheetId="12" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t>テンプレート_トップ</t>
     <phoneticPr fontId="1"/>
@@ -46,16 +46,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕様項目1</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕様項目2</t>
     <rPh sb="0" eb="4">
       <t>シヨウコウモク</t>
@@ -90,13 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テンプレート_仕様項目1</t>
-    <rPh sb="7" eb="11">
-      <t>シヨウコウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テンプレート_仕様項目2</t>
     <rPh sb="7" eb="11">
       <t>シヨウコウモク</t>
@@ -172,33 +155,181 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変数名</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンスウメイ</t>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>型名</t>
-    <rPh sb="0" eb="1">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
+    <t>プレイヤー概要</t>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>初期値</t>
-    <rPh sb="0" eb="3">
-      <t>ショキチ</t>
+    <t>プレイヤーの大まかな性能</t>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>概要</t>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
     <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動その２</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走る</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコン設置</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコンの設置</t>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全方向３６０度に移動</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引っ張り</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコン設置した後の引っ張り</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>放す</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引っ張りを放して塊を飛ばす</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタマリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの移動は歩くと走る</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -209,11 +340,210 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>スティック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー座標＋スティックの方向（要調整）</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー座標＋スティックの方向＋１．５（要調整）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スティック＋Bボタン（要調整）</t>
+    <rPh sb="11" eb="14">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定井</t>
+    <rPh sb="0" eb="2">
+      <t>サダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー概要</t>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ図</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタン（要調整）</t>
+    <rPh sb="5" eb="8">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタンを押してプレイヤーの目の前にビーコンを置く</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコン設置からの引っ張り</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタン押しっぱなし（要調整）</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコンを設置した後Aボタンを長押ししている間、プレイヤーは自由に動きAボタンを押してる限り引っ張れる。</t>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーコン設置からの引っ張りからの離す</t>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタンを離す（要調整）</t>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヨウチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aボタンを離したら引っ張りハンティングする。</t>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー概要</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -547,12 +877,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -638,32 +1124,125 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -674,17 +1253,14 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,6 +1293,1277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 磁気ディスク 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2694214" y="9497786"/>
+          <a:ext cx="625929" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Top"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="127000">
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2272394" y="8939893"/>
+          <a:ext cx="517071" cy="1088572"/>
+          <a:chOff x="1959429" y="8980714"/>
+          <a:chExt cx="517071" cy="1088572"/>
+        </a:xfrm>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Right"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="二等辺三角形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1973036" y="9171214"/>
+            <a:ext cx="449035" cy="898072"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="スマイル 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1959429" y="8980714"/>
+            <a:ext cx="517071" cy="449036"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="748393" y="9035143"/>
+          <a:ext cx="1074964" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104167"/>
+            <a:gd name="adj2" fmla="val 102500"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="9048750"/>
+          <a:ext cx="1126671" cy="261256"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58031"/>
+            <a:gd name="adj2" fmla="val 209375"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ビーコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3932464" y="12654642"/>
+          <a:ext cx="625929" cy="598715"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Top"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="127000">
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1102179" y="11756572"/>
+          <a:ext cx="517071" cy="1088572"/>
+          <a:chOff x="1959429" y="8980714"/>
+          <a:chExt cx="517071" cy="1088572"/>
+        </a:xfrm>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Right"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="二等辺三角形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1973036" y="9171214"/>
+            <a:ext cx="449035" cy="898072"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="スマイル 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1959429" y="8980714"/>
+            <a:ext cx="517071" cy="449036"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形吹き出し 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="11593286"/>
+          <a:ext cx="1074964" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -896"/>
+            <a:gd name="adj2" fmla="val 235833"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形吹き出し 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703865" y="11906250"/>
+          <a:ext cx="1126671" cy="261257"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2475"/>
+            <a:gd name="adj2" fmla="val 365625"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ビーコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1074964" y="12300857"/>
+          <a:ext cx="3565072" cy="816429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Top"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3932464" y="12654642"/>
+          <a:ext cx="625929" cy="598715"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Top"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="127000">
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1102179" y="14763751"/>
+          <a:ext cx="517071" cy="1088571"/>
+          <a:chOff x="1959429" y="8980714"/>
+          <a:chExt cx="517071" cy="1088572"/>
+        </a:xfrm>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Right"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="二等辺三角形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1973036" y="9171214"/>
+            <a:ext cx="449035" cy="898072"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="スマイル 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1959429" y="8980714"/>
+            <a:ext cx="517071" cy="449036"/>
+          </a:xfrm>
+          <a:prstGeom prst="smileyFace">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:sp3d>
+            <a:bevelT/>
+          </a:sp3d>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形吹き出し 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="11593286"/>
+          <a:ext cx="1074964" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -896"/>
+            <a:gd name="adj2" fmla="val 235833"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形吹き出し 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703865" y="11906250"/>
+          <a:ext cx="1126671" cy="261257"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2475"/>
+            <a:gd name="adj2" fmla="val 365625"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ビーコン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2068286" y="15539357"/>
+          <a:ext cx="2571750" cy="585108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Top"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>68032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>27211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="右矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1483178" y="15103925"/>
+          <a:ext cx="2054679" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="isometricOffAxis2Top"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形吹き出し 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2136321" y="11838214"/>
+          <a:ext cx="1349828" cy="234044"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4928"/>
+            <a:gd name="adj2" fmla="val 282344"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>引っ張りの範囲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29934</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形吹き出し 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381249" y="15008678"/>
+          <a:ext cx="1349828" cy="234044"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4928"/>
+            <a:gd name="adj2" fmla="val 282344"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>引っ張りの範囲</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -984,26 +2831,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1017,37 +2864,37 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="24" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
       <c r="V4" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W4" s="24"/>
       <c r="X4" s="24"/>
       <c r="Y4" s="24"/>
       <c r="Z4" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="24"/>
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
     </row>
-    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1077,10 +2924,10 @@
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
     </row>
-    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -1122,23 +2969,23 @@
       <c r="AN7" s="19"/>
       <c r="AO7" s="20"/>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
@@ -1146,7 +2993,7 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -1172,24 +3019,32 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23"/>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="13"/>
+    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13">
+        <v>43399</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="15"/>
+      <c r="R9" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
@@ -1214,7 +3069,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="17"/>
     </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1256,7 +3111,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1298,7 +3153,7 @@
       <c r="AN11" s="10"/>
       <c r="AO11" s="12"/>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1340,7 +3195,7 @@
       <c r="AN12" s="10"/>
       <c r="AO12" s="12"/>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1382,7 +3237,7 @@
       <c r="AN13" s="10"/>
       <c r="AO13" s="12"/>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1424,7 +3279,7 @@
       <c r="AN14" s="10"/>
       <c r="AO14" s="12"/>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1466,7 +3321,7 @@
       <c r="AN15" s="10"/>
       <c r="AO15" s="12"/>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1508,7 +3363,7 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="12"/>
     </row>
-    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1550,7 +3405,7 @@
       <c r="AN17" s="10"/>
       <c r="AO17" s="12"/>
     </row>
-    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1592,7 +3447,7 @@
       <c r="AN18" s="10"/>
       <c r="AO18" s="12"/>
     </row>
-    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1634,7 +3489,7 @@
       <c r="AN19" s="10"/>
       <c r="AO19" s="12"/>
     </row>
-    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1676,7 +3531,7 @@
       <c r="AN20" s="10"/>
       <c r="AO20" s="12"/>
     </row>
-    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1718,7 +3573,7 @@
       <c r="AN21" s="10"/>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1760,7 +3615,7 @@
       <c r="AN22" s="10"/>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1802,7 +3657,7 @@
       <c r="AN23" s="10"/>
       <c r="AO23" s="12"/>
     </row>
-    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1844,7 +3699,7 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="12"/>
     </row>
-    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1886,7 +3741,7 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1928,7 +3783,7 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="12"/>
     </row>
-    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1970,7 +3825,7 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="12"/>
     </row>
-    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2012,7 +3867,7 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="12"/>
     </row>
-    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2054,7 +3909,7 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="12"/>
     </row>
-    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2096,7 +3951,7 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="12"/>
     </row>
-    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2138,7 +3993,7 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="12"/>
     </row>
-    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2180,7 +4035,7 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="12"/>
     </row>
-    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2222,7 +4077,7 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="12"/>
     </row>
-    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2264,7 +4119,7 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="12"/>
     </row>
-    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2306,7 +4161,7 @@
       <c r="AN35" s="10"/>
       <c r="AO35" s="12"/>
     </row>
-    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2348,7 +4203,7 @@
       <c r="AN36" s="10"/>
       <c r="AO36" s="12"/>
     </row>
-    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2524,7 +4379,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="J4:M5" location="プレイヤー概要!A1" display="プレイヤー概要"/>
     <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
     <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
     <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
@@ -2538,263 +4393,267 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA39"/>
+  <dimension ref="A1:BA71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18:R19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="25" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45" t="s">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45" t="s">
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-    </row>
-    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+    </row>
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-    </row>
-    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="40"/>
-    </row>
-    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="43"/>
-    </row>
-    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+    </row>
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="70"/>
+      <c r="AT7" s="70"/>
+      <c r="AU7" s="70"/>
+      <c r="AV7" s="71"/>
+    </row>
+    <row r="8" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="74"/>
+    </row>
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+    </row>
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="27">
+        <v>1</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="17"/>
-    </row>
-    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -2805,7 +4664,9 @@
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
+      <c r="O10" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -2813,35 +4674,37 @@
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
       <c r="V10" s="27"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33"/>
-    </row>
-    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="29"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+    </row>
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -2862,37 +4725,41 @@
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="32"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="32"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33"/>
-    </row>
-    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="29"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+    </row>
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
@@ -2903,7 +4770,9 @@
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
       <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
+      <c r="O12" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
@@ -2911,35 +4780,37 @@
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33"/>
-    </row>
-    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="29"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+    </row>
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -2960,37 +4831,41 @@
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33"/>
-    </row>
-    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="29"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="27">
+        <v>3</v>
+      </c>
       <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -3001,7 +4876,9 @@
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
       <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
+      <c r="O14" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
@@ -3009,35 +4886,35 @@
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="32"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33"/>
-    </row>
-    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="29"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -3058,37 +4935,41 @@
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="32"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33"/>
-    </row>
-    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="29"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+    </row>
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="27">
+        <v>4</v>
+      </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="D16" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -3099,7 +4980,9 @@
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
+      <c r="O16" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
@@ -3107,35 +4990,35 @@
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="33"/>
-    </row>
-    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="29"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+    </row>
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -3156,37 +5039,41 @@
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="32"/>
-      <c r="AU17" s="32"/>
-      <c r="AV17" s="33"/>
-    </row>
-    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="29"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+    </row>
+    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="27">
+        <v>4</v>
+      </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -3197,7 +5084,9 @@
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
       <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
+      <c r="O18" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
@@ -3205,35 +5094,35 @@
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="33"/>
-    </row>
-    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="29"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+    </row>
+    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -3254,1015 +5143,2253 @@
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="32"/>
-      <c r="AU19" s="32"/>
-      <c r="AV19" s="33"/>
-    </row>
-    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="29"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="33"/>
-    </row>
-    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="29"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="32"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33"/>
-    </row>
-    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="29"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-      <c r="AS22" s="32"/>
-      <c r="AT22" s="32"/>
-      <c r="AU22" s="32"/>
-      <c r="AV22" s="33"/>
-    </row>
-    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+    </row>
+    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+    </row>
+    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="29"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="33"/>
-    </row>
-    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="29"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+    </row>
+    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
       <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="33"/>
-    </row>
-    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="29"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="33"/>
-    </row>
-    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="29"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="33"/>
-    </row>
-    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="29"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="33"/>
-    </row>
-    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="29"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="33"/>
-    </row>
-    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="29"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="33"/>
-    </row>
-    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="29"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="32"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="32"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="33"/>
-    </row>
-    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="29"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="33"/>
-    </row>
-    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="36"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="33"/>
-    </row>
-    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="29"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="33"/>
-    </row>
-    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="36"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="33"/>
-    </row>
-    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="29"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="33"/>
-    </row>
-    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="31"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="32"/>
+    </row>
+    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="61"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="44"/>
+    </row>
+    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="46"/>
+      <c r="AO26" s="46"/>
+      <c r="AP26" s="46"/>
+      <c r="AQ26" s="46"/>
+      <c r="AR26" s="46"/>
+      <c r="AS26" s="46"/>
+      <c r="AT26" s="46"/>
+      <c r="AU26" s="46"/>
+      <c r="AV26" s="47"/>
+    </row>
+    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="45"/>
+      <c r="AL27" s="46"/>
+      <c r="AM27" s="46"/>
+      <c r="AN27" s="46"/>
+      <c r="AO27" s="46"/>
+      <c r="AP27" s="46"/>
+      <c r="AQ27" s="46"/>
+      <c r="AR27" s="46"/>
+      <c r="AS27" s="46"/>
+      <c r="AT27" s="46"/>
+      <c r="AU27" s="46"/>
+      <c r="AV27" s="47"/>
+    </row>
+    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+      <c r="AJ28" s="68"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="50"/>
+    </row>
+    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="61"/>
+      <c r="AC29" s="61"/>
+      <c r="AD29" s="61"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="61"/>
+      <c r="AG29" s="61"/>
+      <c r="AH29" s="61"/>
+      <c r="AI29" s="61"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
+      <c r="AO29" s="61"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="61"/>
+      <c r="AR29" s="61"/>
+      <c r="AS29" s="61"/>
+      <c r="AT29" s="61"/>
+      <c r="AU29" s="61"/>
+      <c r="AV29" s="62"/>
+    </row>
+    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="65"/>
+    </row>
+    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="65"/>
+    </row>
+    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="67"/>
+      <c r="AJ32" s="68"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="67"/>
+      <c r="AP32" s="67"/>
+      <c r="AQ32" s="67"/>
+      <c r="AR32" s="67"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="67"/>
+      <c r="AU32" s="67"/>
+      <c r="AV32" s="68"/>
+    </row>
+    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+    </row>
+    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="29"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="32"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="32"/>
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="32"/>
-      <c r="AS36" s="32"/>
-      <c r="AT36" s="32"/>
-      <c r="AU36" s="32"/>
-      <c r="AV36" s="33"/>
-    </row>
-    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="29"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="29"/>
+      <c r="AT36" s="29"/>
+      <c r="AU36" s="29"/>
+      <c r="AV36" s="29"/>
+    </row>
+    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="31"/>
+      <c r="AE37" s="31"/>
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="31"/>
       <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="32"/>
-      <c r="AO37" s="32"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="32"/>
-      <c r="AR37" s="32"/>
-      <c r="AS37" s="32"/>
-      <c r="AT37" s="32"/>
-      <c r="AU37" s="32"/>
-      <c r="AV37" s="33"/>
-    </row>
-    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="29"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="32"/>
-      <c r="AO38" s="32"/>
-      <c r="AP38" s="32"/>
-      <c r="AQ38" s="32"/>
-      <c r="AR38" s="32"/>
-      <c r="AS38" s="32"/>
-      <c r="AT38" s="32"/>
-      <c r="AU38" s="32"/>
-      <c r="AV38" s="33"/>
-    </row>
-    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-      <c r="AK39" s="34"/>
-      <c r="AL39" s="34"/>
-      <c r="AM39" s="34"/>
-      <c r="AN39" s="34"/>
-      <c r="AO39" s="34"/>
-      <c r="AP39" s="34"/>
-      <c r="AQ39" s="34"/>
-      <c r="AR39" s="34"/>
-      <c r="AS39" s="34"/>
-      <c r="AT39" s="34"/>
-      <c r="AU39" s="34"/>
-      <c r="AV39" s="35"/>
+      <c r="AK37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL37" s="31"/>
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="31"/>
+      <c r="AQ37" s="31"/>
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="32"/>
+    </row>
+    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43"/>
+      <c r="AT38" s="43"/>
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="44"/>
+    </row>
+    <row r="39" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="47"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="46"/>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="46"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
+      <c r="AQ39" s="46"/>
+      <c r="AR39" s="46"/>
+      <c r="AS39" s="46"/>
+      <c r="AT39" s="46"/>
+      <c r="AU39" s="46"/>
+      <c r="AV39" s="47"/>
+    </row>
+    <row r="40" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="47"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
+      <c r="AN40" s="46"/>
+      <c r="AO40" s="46"/>
+      <c r="AP40" s="46"/>
+      <c r="AQ40" s="46"/>
+      <c r="AR40" s="46"/>
+      <c r="AS40" s="46"/>
+      <c r="AT40" s="46"/>
+      <c r="AU40" s="46"/>
+      <c r="AV40" s="47"/>
+    </row>
+    <row r="41" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="47"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="46"/>
+      <c r="AM41" s="46"/>
+      <c r="AN41" s="46"/>
+      <c r="AO41" s="46"/>
+      <c r="AP41" s="46"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
+      <c r="AT41" s="46"/>
+      <c r="AU41" s="46"/>
+      <c r="AV41" s="47"/>
+    </row>
+    <row r="42" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="47"/>
+      <c r="AK42" s="45"/>
+      <c r="AL42" s="46"/>
+      <c r="AM42" s="46"/>
+      <c r="AN42" s="46"/>
+      <c r="AO42" s="46"/>
+      <c r="AP42" s="46"/>
+      <c r="AQ42" s="46"/>
+      <c r="AR42" s="46"/>
+      <c r="AS42" s="46"/>
+      <c r="AT42" s="46"/>
+      <c r="AU42" s="46"/>
+      <c r="AV42" s="47"/>
+    </row>
+    <row r="43" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="46"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="46"/>
+      <c r="AE43" s="46"/>
+      <c r="AF43" s="46"/>
+      <c r="AG43" s="46"/>
+      <c r="AH43" s="46"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="47"/>
+      <c r="AK43" s="45"/>
+      <c r="AL43" s="46"/>
+      <c r="AM43" s="46"/>
+      <c r="AN43" s="46"/>
+      <c r="AO43" s="46"/>
+      <c r="AP43" s="46"/>
+      <c r="AQ43" s="46"/>
+      <c r="AR43" s="46"/>
+      <c r="AS43" s="46"/>
+      <c r="AT43" s="46"/>
+      <c r="AU43" s="46"/>
+      <c r="AV43" s="47"/>
+    </row>
+    <row r="44" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="46"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="46"/>
+      <c r="AE44" s="46"/>
+      <c r="AF44" s="46"/>
+      <c r="AG44" s="46"/>
+      <c r="AH44" s="46"/>
+      <c r="AI44" s="46"/>
+      <c r="AJ44" s="47"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="46"/>
+      <c r="AM44" s="46"/>
+      <c r="AN44" s="46"/>
+      <c r="AO44" s="46"/>
+      <c r="AP44" s="46"/>
+      <c r="AQ44" s="46"/>
+      <c r="AR44" s="46"/>
+      <c r="AS44" s="46"/>
+      <c r="AT44" s="46"/>
+      <c r="AU44" s="46"/>
+      <c r="AV44" s="47"/>
+    </row>
+    <row r="45" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
+      <c r="Y45" s="49"/>
+      <c r="Z45" s="49"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="49"/>
+      <c r="AF45" s="49"/>
+      <c r="AG45" s="49"/>
+      <c r="AH45" s="49"/>
+      <c r="AI45" s="49"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="48"/>
+      <c r="AL45" s="49"/>
+      <c r="AM45" s="49"/>
+      <c r="AN45" s="49"/>
+      <c r="AO45" s="49"/>
+      <c r="AP45" s="49"/>
+      <c r="AQ45" s="49"/>
+      <c r="AR45" s="49"/>
+      <c r="AS45" s="49"/>
+      <c r="AT45" s="49"/>
+      <c r="AU45" s="49"/>
+      <c r="AV45" s="50"/>
+    </row>
+    <row r="48" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="29"/>
+      <c r="AL48" s="29"/>
+      <c r="AM48" s="29"/>
+      <c r="AN48" s="29"/>
+      <c r="AO48" s="29"/>
+      <c r="AP48" s="29"/>
+      <c r="AQ48" s="29"/>
+      <c r="AR48" s="29"/>
+      <c r="AS48" s="29"/>
+      <c r="AT48" s="29"/>
+      <c r="AU48" s="29"/>
+      <c r="AV48" s="29"/>
+    </row>
+    <row r="49" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
+      <c r="AL49" s="29"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="29"/>
+      <c r="AS49" s="29"/>
+      <c r="AT49" s="29"/>
+      <c r="AU49" s="29"/>
+      <c r="AV49" s="29"/>
+    </row>
+    <row r="50" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31"/>
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL50" s="31"/>
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="31"/>
+      <c r="AO50" s="31"/>
+      <c r="AP50" s="31"/>
+      <c r="AQ50" s="31"/>
+      <c r="AR50" s="31"/>
+      <c r="AS50" s="31"/>
+      <c r="AT50" s="31"/>
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="32"/>
+    </row>
+    <row r="51" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
+      <c r="AB51" s="43"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="43"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="43"/>
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="43"/>
+      <c r="AI51" s="43"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="43"/>
+      <c r="AN51" s="43"/>
+      <c r="AO51" s="43"/>
+      <c r="AP51" s="43"/>
+      <c r="AQ51" s="43"/>
+      <c r="AR51" s="43"/>
+      <c r="AS51" s="43"/>
+      <c r="AT51" s="43"/>
+      <c r="AU51" s="43"/>
+      <c r="AV51" s="44"/>
+    </row>
+    <row r="52" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="47"/>
+      <c r="AK52" s="45"/>
+      <c r="AL52" s="46"/>
+      <c r="AM52" s="46"/>
+      <c r="AN52" s="46"/>
+      <c r="AO52" s="46"/>
+      <c r="AP52" s="46"/>
+      <c r="AQ52" s="46"/>
+      <c r="AR52" s="46"/>
+      <c r="AS52" s="46"/>
+      <c r="AT52" s="46"/>
+      <c r="AU52" s="46"/>
+      <c r="AV52" s="47"/>
+    </row>
+    <row r="53" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
+      <c r="AD53" s="46"/>
+      <c r="AE53" s="46"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="47"/>
+      <c r="AK53" s="45"/>
+      <c r="AL53" s="46"/>
+      <c r="AM53" s="46"/>
+      <c r="AN53" s="46"/>
+      <c r="AO53" s="46"/>
+      <c r="AP53" s="46"/>
+      <c r="AQ53" s="46"/>
+      <c r="AR53" s="46"/>
+      <c r="AS53" s="46"/>
+      <c r="AT53" s="46"/>
+      <c r="AU53" s="46"/>
+      <c r="AV53" s="47"/>
+    </row>
+    <row r="54" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46"/>
+      <c r="AD54" s="46"/>
+      <c r="AE54" s="46"/>
+      <c r="AF54" s="46"/>
+      <c r="AG54" s="46"/>
+      <c r="AH54" s="46"/>
+      <c r="AI54" s="46"/>
+      <c r="AJ54" s="47"/>
+      <c r="AK54" s="45"/>
+      <c r="AL54" s="46"/>
+      <c r="AM54" s="46"/>
+      <c r="AN54" s="46"/>
+      <c r="AO54" s="46"/>
+      <c r="AP54" s="46"/>
+      <c r="AQ54" s="46"/>
+      <c r="AR54" s="46"/>
+      <c r="AS54" s="46"/>
+      <c r="AT54" s="46"/>
+      <c r="AU54" s="46"/>
+      <c r="AV54" s="47"/>
+    </row>
+    <row r="55" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="36"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="47"/>
+      <c r="AK55" s="45"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="46"/>
+      <c r="AR55" s="46"/>
+      <c r="AS55" s="46"/>
+      <c r="AT55" s="46"/>
+      <c r="AU55" s="46"/>
+      <c r="AV55" s="47"/>
+    </row>
+    <row r="56" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="46"/>
+      <c r="AE56" s="46"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="46"/>
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="46"/>
+      <c r="AJ56" s="47"/>
+      <c r="AK56" s="45"/>
+      <c r="AL56" s="46"/>
+      <c r="AM56" s="46"/>
+      <c r="AN56" s="46"/>
+      <c r="AO56" s="46"/>
+      <c r="AP56" s="46"/>
+      <c r="AQ56" s="46"/>
+      <c r="AR56" s="46"/>
+      <c r="AS56" s="46"/>
+      <c r="AT56" s="46"/>
+      <c r="AU56" s="46"/>
+      <c r="AV56" s="47"/>
+    </row>
+    <row r="57" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="46"/>
+      <c r="AD57" s="46"/>
+      <c r="AE57" s="46"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="46"/>
+      <c r="AH57" s="46"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="45"/>
+      <c r="AL57" s="46"/>
+      <c r="AM57" s="46"/>
+      <c r="AN57" s="46"/>
+      <c r="AO57" s="46"/>
+      <c r="AP57" s="46"/>
+      <c r="AQ57" s="46"/>
+      <c r="AR57" s="46"/>
+      <c r="AS57" s="46"/>
+      <c r="AT57" s="46"/>
+      <c r="AU57" s="46"/>
+      <c r="AV57" s="47"/>
+    </row>
+    <row r="58" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="49"/>
+      <c r="X58" s="49"/>
+      <c r="Y58" s="49"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="49"/>
+      <c r="AD58" s="49"/>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="49"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="49"/>
+      <c r="AI58" s="49"/>
+      <c r="AJ58" s="50"/>
+      <c r="AK58" s="48"/>
+      <c r="AL58" s="49"/>
+      <c r="AM58" s="49"/>
+      <c r="AN58" s="49"/>
+      <c r="AO58" s="49"/>
+      <c r="AP58" s="49"/>
+      <c r="AQ58" s="49"/>
+      <c r="AR58" s="49"/>
+      <c r="AS58" s="49"/>
+      <c r="AT58" s="49"/>
+      <c r="AU58" s="49"/>
+      <c r="AV58" s="50"/>
+    </row>
+    <row r="61" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="29"/>
+      <c r="AF61" s="29"/>
+      <c r="AG61" s="29"/>
+      <c r="AH61" s="29"/>
+      <c r="AI61" s="29"/>
+      <c r="AJ61" s="29"/>
+      <c r="AK61" s="29"/>
+      <c r="AL61" s="29"/>
+      <c r="AM61" s="29"/>
+      <c r="AN61" s="29"/>
+      <c r="AO61" s="29"/>
+      <c r="AP61" s="29"/>
+      <c r="AQ61" s="29"/>
+      <c r="AR61" s="29"/>
+      <c r="AS61" s="29"/>
+      <c r="AT61" s="29"/>
+      <c r="AU61" s="29"/>
+      <c r="AV61" s="29"/>
+    </row>
+    <row r="62" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
+      <c r="AE62" s="29"/>
+      <c r="AF62" s="29"/>
+      <c r="AG62" s="29"/>
+      <c r="AH62" s="29"/>
+      <c r="AI62" s="29"/>
+      <c r="AJ62" s="29"/>
+      <c r="AK62" s="29"/>
+      <c r="AL62" s="29"/>
+      <c r="AM62" s="29"/>
+      <c r="AN62" s="29"/>
+      <c r="AO62" s="29"/>
+      <c r="AP62" s="29"/>
+      <c r="AQ62" s="29"/>
+      <c r="AR62" s="29"/>
+      <c r="AS62" s="29"/>
+      <c r="AT62" s="29"/>
+      <c r="AU62" s="29"/>
+      <c r="AV62" s="29"/>
+    </row>
+    <row r="63" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="W63" s="31"/>
+      <c r="X63" s="31"/>
+      <c r="Y63" s="31"/>
+      <c r="Z63" s="31"/>
+      <c r="AA63" s="31"/>
+      <c r="AB63" s="31"/>
+      <c r="AC63" s="31"/>
+      <c r="AD63" s="31"/>
+      <c r="AE63" s="31"/>
+      <c r="AF63" s="31"/>
+      <c r="AG63" s="31"/>
+      <c r="AH63" s="31"/>
+      <c r="AI63" s="31"/>
+      <c r="AJ63" s="32"/>
+      <c r="AK63" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL63" s="31"/>
+      <c r="AM63" s="31"/>
+      <c r="AN63" s="31"/>
+      <c r="AO63" s="31"/>
+      <c r="AP63" s="31"/>
+      <c r="AQ63" s="31"/>
+      <c r="AR63" s="31"/>
+      <c r="AS63" s="31"/>
+      <c r="AT63" s="31"/>
+      <c r="AU63" s="31"/>
+      <c r="AV63" s="32"/>
+    </row>
+    <row r="64" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+      <c r="T64" s="34"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="43"/>
+      <c r="AB64" s="43"/>
+      <c r="AC64" s="43"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="44"/>
+      <c r="AK64" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL64" s="43"/>
+      <c r="AM64" s="43"/>
+      <c r="AN64" s="43"/>
+      <c r="AO64" s="43"/>
+      <c r="AP64" s="43"/>
+      <c r="AQ64" s="43"/>
+      <c r="AR64" s="43"/>
+      <c r="AS64" s="43"/>
+      <c r="AT64" s="43"/>
+      <c r="AU64" s="43"/>
+      <c r="AV64" s="44"/>
+    </row>
+    <row r="65" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="46"/>
+      <c r="AD65" s="46"/>
+      <c r="AE65" s="46"/>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="46"/>
+      <c r="AH65" s="46"/>
+      <c r="AI65" s="46"/>
+      <c r="AJ65" s="47"/>
+      <c r="AK65" s="45"/>
+      <c r="AL65" s="46"/>
+      <c r="AM65" s="46"/>
+      <c r="AN65" s="46"/>
+      <c r="AO65" s="46"/>
+      <c r="AP65" s="46"/>
+      <c r="AQ65" s="46"/>
+      <c r="AR65" s="46"/>
+      <c r="AS65" s="46"/>
+      <c r="AT65" s="46"/>
+      <c r="AU65" s="46"/>
+      <c r="AV65" s="47"/>
+    </row>
+    <row r="66" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="46"/>
+      <c r="AI66" s="46"/>
+      <c r="AJ66" s="47"/>
+      <c r="AK66" s="45"/>
+      <c r="AL66" s="46"/>
+      <c r="AM66" s="46"/>
+      <c r="AN66" s="46"/>
+      <c r="AO66" s="46"/>
+      <c r="AP66" s="46"/>
+      <c r="AQ66" s="46"/>
+      <c r="AR66" s="46"/>
+      <c r="AS66" s="46"/>
+      <c r="AT66" s="46"/>
+      <c r="AU66" s="46"/>
+      <c r="AV66" s="47"/>
+    </row>
+    <row r="67" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="46"/>
+      <c r="AD67" s="46"/>
+      <c r="AE67" s="46"/>
+      <c r="AF67" s="46"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="46"/>
+      <c r="AJ67" s="47"/>
+      <c r="AK67" s="45"/>
+      <c r="AL67" s="46"/>
+      <c r="AM67" s="46"/>
+      <c r="AN67" s="46"/>
+      <c r="AO67" s="46"/>
+      <c r="AP67" s="46"/>
+      <c r="AQ67" s="46"/>
+      <c r="AR67" s="46"/>
+      <c r="AS67" s="46"/>
+      <c r="AT67" s="46"/>
+      <c r="AU67" s="46"/>
+      <c r="AV67" s="47"/>
+    </row>
+    <row r="68" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="46"/>
+      <c r="AB68" s="46"/>
+      <c r="AC68" s="46"/>
+      <c r="AD68" s="46"/>
+      <c r="AE68" s="46"/>
+      <c r="AF68" s="46"/>
+      <c r="AG68" s="46"/>
+      <c r="AH68" s="46"/>
+      <c r="AI68" s="46"/>
+      <c r="AJ68" s="47"/>
+      <c r="AK68" s="45"/>
+      <c r="AL68" s="46"/>
+      <c r="AM68" s="46"/>
+      <c r="AN68" s="46"/>
+      <c r="AO68" s="46"/>
+      <c r="AP68" s="46"/>
+      <c r="AQ68" s="46"/>
+      <c r="AR68" s="46"/>
+      <c r="AS68" s="46"/>
+      <c r="AT68" s="46"/>
+      <c r="AU68" s="46"/>
+      <c r="AV68" s="47"/>
+    </row>
+    <row r="69" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="45"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="46"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="46"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="45"/>
+      <c r="AL69" s="46"/>
+      <c r="AM69" s="46"/>
+      <c r="AN69" s="46"/>
+      <c r="AO69" s="46"/>
+      <c r="AP69" s="46"/>
+      <c r="AQ69" s="46"/>
+      <c r="AR69" s="46"/>
+      <c r="AS69" s="46"/>
+      <c r="AT69" s="46"/>
+      <c r="AU69" s="46"/>
+      <c r="AV69" s="47"/>
+    </row>
+    <row r="70" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
+      <c r="Y70" s="46"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="46"/>
+      <c r="AE70" s="46"/>
+      <c r="AF70" s="46"/>
+      <c r="AG70" s="46"/>
+      <c r="AH70" s="46"/>
+      <c r="AI70" s="46"/>
+      <c r="AJ70" s="47"/>
+      <c r="AK70" s="45"/>
+      <c r="AL70" s="46"/>
+      <c r="AM70" s="46"/>
+      <c r="AN70" s="46"/>
+      <c r="AO70" s="46"/>
+      <c r="AP70" s="46"/>
+      <c r="AQ70" s="46"/>
+      <c r="AR70" s="46"/>
+      <c r="AS70" s="46"/>
+      <c r="AT70" s="46"/>
+      <c r="AU70" s="46"/>
+      <c r="AV70" s="47"/>
+    </row>
+    <row r="71" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="39"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="48"/>
+      <c r="W71" s="49"/>
+      <c r="X71" s="49"/>
+      <c r="Y71" s="49"/>
+      <c r="Z71" s="49"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="49"/>
+      <c r="AF71" s="49"/>
+      <c r="AG71" s="49"/>
+      <c r="AH71" s="49"/>
+      <c r="AI71" s="49"/>
+      <c r="AJ71" s="50"/>
+      <c r="AK71" s="48"/>
+      <c r="AL71" s="49"/>
+      <c r="AM71" s="49"/>
+      <c r="AN71" s="49"/>
+      <c r="AO71" s="49"/>
+      <c r="AP71" s="49"/>
+      <c r="AQ71" s="49"/>
+      <c r="AR71" s="49"/>
+      <c r="AS71" s="49"/>
+      <c r="AT71" s="49"/>
+      <c r="AU71" s="49"/>
+      <c r="AV71" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="69">
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
@@ -4272,90 +7399,70 @@
     <mergeCell ref="V4:Y5"/>
     <mergeCell ref="Z4:AC5"/>
     <mergeCell ref="B7:AV8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="W9:AV9"/>
-    <mergeCell ref="B12:H13"/>
-    <mergeCell ref="I12:N13"/>
-    <mergeCell ref="O12:R13"/>
-    <mergeCell ref="S12:V13"/>
-    <mergeCell ref="W12:AV13"/>
-    <mergeCell ref="B10:H11"/>
-    <mergeCell ref="I10:N11"/>
-    <mergeCell ref="O10:R11"/>
-    <mergeCell ref="S10:V11"/>
-    <mergeCell ref="W10:AV11"/>
-    <mergeCell ref="B16:H17"/>
-    <mergeCell ref="I16:N17"/>
-    <mergeCell ref="O16:R17"/>
-    <mergeCell ref="S16:V17"/>
-    <mergeCell ref="W16:AV17"/>
-    <mergeCell ref="B14:H15"/>
-    <mergeCell ref="I14:N15"/>
-    <mergeCell ref="O14:R15"/>
-    <mergeCell ref="S14:V15"/>
-    <mergeCell ref="W14:AV15"/>
-    <mergeCell ref="B20:H21"/>
-    <mergeCell ref="I20:N21"/>
-    <mergeCell ref="O20:R21"/>
-    <mergeCell ref="S20:V21"/>
-    <mergeCell ref="W20:AV21"/>
-    <mergeCell ref="B18:H19"/>
-    <mergeCell ref="I18:N19"/>
-    <mergeCell ref="O18:R19"/>
-    <mergeCell ref="S18:V19"/>
-    <mergeCell ref="W18:AV19"/>
-    <mergeCell ref="B24:H25"/>
-    <mergeCell ref="I24:N25"/>
-    <mergeCell ref="O24:R25"/>
-    <mergeCell ref="S24:V25"/>
-    <mergeCell ref="W24:AV25"/>
-    <mergeCell ref="B22:H23"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="O22:R23"/>
-    <mergeCell ref="S22:V23"/>
-    <mergeCell ref="W22:AV23"/>
-    <mergeCell ref="B28:H29"/>
-    <mergeCell ref="I28:N29"/>
-    <mergeCell ref="O28:R29"/>
-    <mergeCell ref="S28:V29"/>
-    <mergeCell ref="W28:AV29"/>
-    <mergeCell ref="B26:H27"/>
-    <mergeCell ref="I26:N27"/>
-    <mergeCell ref="O26:R27"/>
-    <mergeCell ref="S26:V27"/>
-    <mergeCell ref="W26:AV27"/>
-    <mergeCell ref="B32:H33"/>
-    <mergeCell ref="I32:N33"/>
-    <mergeCell ref="O32:R33"/>
-    <mergeCell ref="S32:V33"/>
-    <mergeCell ref="W32:AV33"/>
-    <mergeCell ref="B30:H31"/>
-    <mergeCell ref="I30:N31"/>
-    <mergeCell ref="O30:R31"/>
-    <mergeCell ref="S30:V31"/>
-    <mergeCell ref="W30:AV31"/>
-    <mergeCell ref="B36:H37"/>
-    <mergeCell ref="I36:N37"/>
-    <mergeCell ref="O36:R37"/>
-    <mergeCell ref="S36:V37"/>
-    <mergeCell ref="W36:AV37"/>
-    <mergeCell ref="B34:H35"/>
-    <mergeCell ref="I34:N35"/>
-    <mergeCell ref="O34:R35"/>
-    <mergeCell ref="S34:V35"/>
-    <mergeCell ref="W34:AV35"/>
-    <mergeCell ref="B38:H39"/>
-    <mergeCell ref="I38:N39"/>
-    <mergeCell ref="O38:R39"/>
-    <mergeCell ref="S38:V39"/>
-    <mergeCell ref="W38:AV39"/>
+    <mergeCell ref="O9:AN9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="O10:AN11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:N11"/>
+    <mergeCell ref="AO10:AV11"/>
+    <mergeCell ref="AO12:AV13"/>
+    <mergeCell ref="O12:AN13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:N13"/>
+    <mergeCell ref="O14:AN15"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:N15"/>
+    <mergeCell ref="AO14:AV15"/>
+    <mergeCell ref="AO16:AV17"/>
+    <mergeCell ref="O16:AN17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:N17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:N19"/>
+    <mergeCell ref="O18:AN19"/>
+    <mergeCell ref="AO18:AV19"/>
+    <mergeCell ref="B22:AV23"/>
+    <mergeCell ref="V25:AJ28"/>
+    <mergeCell ref="V29:AJ32"/>
+    <mergeCell ref="AK25:AV28"/>
+    <mergeCell ref="AK29:AV32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:U24"/>
+    <mergeCell ref="V24:AJ24"/>
+    <mergeCell ref="AK24:AV24"/>
+    <mergeCell ref="B25:H32"/>
+    <mergeCell ref="I25:K28"/>
+    <mergeCell ref="I29:K32"/>
+    <mergeCell ref="L25:U28"/>
+    <mergeCell ref="L29:U32"/>
+    <mergeCell ref="B38:U45"/>
+    <mergeCell ref="B37:U37"/>
+    <mergeCell ref="V38:AJ45"/>
+    <mergeCell ref="AK38:AV45"/>
+    <mergeCell ref="B35:AV36"/>
+    <mergeCell ref="V37:AJ37"/>
+    <mergeCell ref="AK37:AV37"/>
+    <mergeCell ref="B48:AV49"/>
+    <mergeCell ref="B50:U50"/>
+    <mergeCell ref="V50:AJ50"/>
+    <mergeCell ref="AK50:AV50"/>
+    <mergeCell ref="B51:U58"/>
+    <mergeCell ref="V51:AJ58"/>
+    <mergeCell ref="AK51:AV58"/>
+    <mergeCell ref="B61:AV62"/>
+    <mergeCell ref="B63:U63"/>
+    <mergeCell ref="V63:AJ63"/>
+    <mergeCell ref="AK63:AV63"/>
+    <mergeCell ref="B64:U71"/>
+    <mergeCell ref="V64:AJ71"/>
+    <mergeCell ref="AK64:AV71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="J4:M5" location="プレイヤー概要!A1" display="プレイヤー概要"/>
     <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
     <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
     <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
@@ -4364,6 +7471,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4371,98 +7479,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="25" t="s">
         <v>3</v>
-      </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="25" t="s">
-        <v>4</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48" t="s">
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4477,7 +7585,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="J4:M5" location="プレイヤー概要!A1" display="プレイヤー概要"/>
     <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
     <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
     <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
@@ -4493,98 +7601,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48" t="s">
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="25" t="s">
         <v>4</v>
-      </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="25" t="s">
-        <v>5</v>
       </c>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
       <c r="R5" s="25"/>
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4599,7 +7707,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="J4:M5" location="プレイヤー概要!A1" display="プレイヤー概要"/>
     <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
     <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
     <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
@@ -4615,98 +7723,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4:Y5"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48" t="s">
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48" t="s">
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="25" t="s">
         <v>5</v>
-      </c>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="25" t="s">
-        <v>6</v>
       </c>
       <c r="W4" s="25"/>
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
-      <c r="Z4" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="Z4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4721,7 +7829,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="J4:M5" location="プレイヤー概要!A1" display="プレイヤー概要"/>
     <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
     <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
     <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
@@ -4737,98 +7845,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE23" sqref="AE23"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45" t="s">
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45" t="s">
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45" t="s">
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+    </row>
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4843,7 +7951,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="J4:M5" location="プレイヤー概要!A1" display="プレイヤー概要"/>
     <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
     <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
     <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
